--- a/java.xlsx
+++ b/java.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Language</t>
   </si>
@@ -40,31 +40,102 @@
     }
 });</t>
   </si>
+  <si>
+    <t>Apache common io</t>
+  </si>
+  <si>
+    <t>read a file</t>
+  </si>
+  <si>
+    <t>import org.apache.commona.io.FileUtils;
+String fileContent=FileUtils.readFileToString(file);</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>How to run a executable jar</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>build a java project</t>
+  </si>
+  <si>
+    <t>$ mvn archetype:generate 
+        -DgroupId=com.mycompany.app
+        -DartifactId=my-app 
+        -DarchetypeArtifactId=maven-archetype-quickstart 
+        -DinteractiveMode=false</t>
+  </si>
+  <si>
+    <t>import project to eclipse</t>
+  </si>
+  <si>
+    <t>1. Generate necessary config file for eclipse:
+$mvn eclipse:eclipse -Dwtpversion=2.0
+2. Imports it into Eclipse IDE
+File -&gt; Import… -&gt; General -&gt; Existing Projects into workspace</t>
+  </si>
+  <si>
+    <t>build a web project</t>
+  </si>
+  <si>
+    <t>$ mvn archetype:generate 
+        -DgroupId={project-packaging} 
+        -DartifactId={project-name} 
+        -DarchetypeArtifactId=maven-archetype-webapp 
+        -DinteractiveMode=false</t>
+  </si>
+  <si>
+    <t>Tomcat</t>
+  </si>
+  <si>
+    <t>basic command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$/etc/init.d/$ sudo ./tomcat6 start
+$/etc/init.d/$ sudo ./tomcat6 stop
+$/etc/init.d/$ sudo ./tomcat6 restart </t>
+  </si>
+  <si>
+    <t>1. java -jar *.jar {argus} : 直接針對該JAR調用MAIN
+2. java -classpath *.jar com.*.*.* : 曲折地把該JAR加為CP, 然後用CP概念調用任一包含STATIC方法的類</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -97,26 +168,33 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -190,6 +268,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -224,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,67 +479,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="67.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/java.xlsx
+++ b/java.xlsx
@@ -11,26 +11,122 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>Language</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+  <si>
+    <t>GSON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class BagOfPrimitives {
+  private int value1 = 1;
+  private String value2 = "abc";
+  private transient int value3 = 3;
+  BagOfPrimitives() {
+    // no-args constructor
+  }
+}
+// Serialization
+BagOfPrimitives obj = new BagOfPrimitives();
+Gson gson = new Gson();
+String json = gson.toJson(obj);  
+// Deserialization
+BagOfPrimitives obj2 = gson.fromJson(json, BagOfPrimitives.class);
+// ==&gt; obj2 is just like obj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anonymous Inner Class</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>read a file</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to run a executable jar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>build a java project</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>import project to eclipse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>build a web project</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic command</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read JSON from HttpRequest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write JSON to HttpResponse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cope api</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. java -jar *.jar {argus} : 直接針對該JAR調用MAIN
+2. java -classpath *.jar com.*.*.* : 曲折地把該JAR加為CP, 然後用CP概念調用任一包含STATIC方法的類</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$/etc/init.d/$ sudo ./tomcat6 start
+$/etc/init.d/$ sudo ./tomcat6 stop
+$/etc/init.d/$ sudo ./tomcat6 restart </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">import org.json.simple.JSONArray;
+import org.json.simple.JSONObject;
+import org.json.simple.parser.JSONParser;
+...
+public void doPost(HttpServletRequest request, HttpServletResponse response)
+  throws ServletException, IOException {
+  StringBuffer jb = new StringBuffer();
+  String line = null;
+  try {
+    BufferedReader reader = request.getReader();
+    while ((line = reader.readLine()) != null)
+      jb.append(line);
+  } catch (Exception e) { /*report an error*/ }
+  try {
+    JSONObject jsonObject = JSONObject.fromObject(jb.toString());
+  } catch (ParseException e) {
+    // crash and burn
+    throw new IOException("Error parsing JSON request string");
+  }
+  // Work with the data using methods like...
+  // int someInt = jsonObject.getInt("intParamName");
+  // String someString = jsonObject.getString("stringParamName");
+  // JSONObject nestedObj = jsonObject.getJSONObject("nestedObjName");
+  // JSONArray arr = jsonObject.getJSONArray("arrayParamName");
+  // etc...
+}
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Code Ref</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Anonymous Inner Class</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>JButton testButton = new JButton("Test Button");
@@ -39,28 +135,12 @@
         System.out.println("Click Detected by Anon Class");
     }
 });</t>
-  </si>
-  <si>
-    <t>Apache common io</t>
-  </si>
-  <si>
-    <t>read a file</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>import org.apache.commona.io.FileUtils;
 String fileContent=FileUtils.readFileToString(file);</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>How to run a executable jar</t>
-  </si>
-  <si>
-    <t>Maven</t>
-  </si>
-  <si>
-    <t>build a java project</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>$ mvn archetype:generate 
@@ -68,18 +148,14 @@
         -DartifactId=my-app 
         -DarchetypeArtifactId=maven-archetype-quickstart 
         -DinteractiveMode=false</t>
-  </si>
-  <si>
-    <t>import project to eclipse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1. Generate necessary config file for eclipse:
 $mvn eclipse:eclipse -Dwtpversion=2.0
 2. Imports it into Eclipse IDE
 File -&gt; Import… -&gt; General -&gt; Existing Projects into workspace</t>
-  </si>
-  <si>
-    <t>build a web project</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>$ mvn archetype:generate 
@@ -87,29 +163,89 @@
         -DartifactId={project-name} 
         -DarchetypeArtifactId=maven-archetype-webapp 
         -DinteractiveMode=false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache common io</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Tomcat</t>
-  </si>
-  <si>
-    <t>basic command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$/etc/init.d/$ sudo ./tomcat6 start
-$/etc/init.d/$ sudo ./tomcat6 stop
-$/etc/init.d/$ sudo ./tomcat6 restart </t>
-  </si>
-  <si>
-    <t>1. java -jar *.jar {argus} : 直接針對該JAR調用MAIN
-2. java -classpath *.jar com.*.*.* : 曲折地把該JAR加為CP, 然後用CP概念調用任一包含STATIC方法的類</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2EE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2EE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven repo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;dependencies&gt;
+    &lt;!--  Gson: Java to Json conversion --&gt;
+    &lt;dependency&gt;
+      &lt;groupId&gt;com.google.code.gson&lt;/groupId&gt;
+      &lt;artifactId&gt;gson&lt;/artifactId&gt;
+      &lt;version&gt;2.6.2&lt;/version&gt;
+      &lt;scope&gt;compile&lt;/scope&gt;
+    &lt;/dependency&gt;
+&lt;/dependencies&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>response.setContentType("text/x-json;charset=UTF-8");           
+response.setHeader("Cache-Control", "no-cache");
+response.getWriter().write(json.toString());
+OR
+json.write(response.getWriter());
+OR
+response.getWriter().print(jsonObject);
+response.getWriter().flush();</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>Pattern p= new Pattern("[abc]");
+Matcher m=p.getMatcher("subject");
+Boolean result= m.matches();</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +274,11 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -165,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -177,6 +318,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,112 +624,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="74.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="68.140625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/java.xlsx
+++ b/java.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>GSON</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -92,6 +92,107 @@
     <t xml:space="preserve">$/etc/init.d/$ sudo ./tomcat6 start
 $/etc/init.d/$ sudo ./tomcat6 stop
 $/etc/init.d/$ sudo ./tomcat6 restart </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Ref</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JButton testButton = new JButton("Test Button");
+testButton.addActionListener(new ActionListener(){
+    @Override public void actionPerformed(ActionEvent ae){
+        System.out.println("Click Detected by Anon Class");
+    }
+});</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>import org.apache.commona.io.FileUtils;
+String fileContent=FileUtils.readFileToString(file);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ mvn archetype:generate 
+        -DgroupId=com.mycompany.app
+        -DartifactId=my-app 
+        -DarchetypeArtifactId=maven-archetype-quickstart 
+        -DinteractiveMode=false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Generate necessary config file for eclipse:
+$mvn eclipse:eclipse -Dwtpversion=2.0
+2. Imports it into Eclipse IDE
+File -&gt; Import… -&gt; General -&gt; Existing Projects into workspace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ mvn archetype:generate 
+        -DgroupId={project-packaging} 
+        -DartifactId={project-name} 
+        -DarchetypeArtifactId=maven-archetype-webapp 
+        -DinteractiveMode=false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache common io</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomcat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2EE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2EE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven repo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>Pattern p= new Pattern("[abc]");
+Matcher m=p.getMatcher("subject");
+Boolean result= m.matches();</t>
+  </si>
+  <si>
+    <t>jdk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>j2ee</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -125,88 +226,45 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Code Ref</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JButton testButton = new JButton("Test Button");
-testButton.addActionListener(new ActionListener(){
-    @Override public void actionPerformed(ActionEvent ae){
-        System.out.println("Click Detected by Anon Class");
+    <t>import java.io.*;
+import javax.servlet.*;
+import javax.servlet.http.*;
+public class ExampServlet extends HttpServlet {
+  public void doPost(HttpServletRequest request, 
+         HttpServletResponse response)
+        throws ServletException, IOException
+  {
+    response.setContentType("text/html");
+    PrintWriter out = response.getWriter();
+    out.println("&lt;title&gt;Example&lt;/title&gt;" +
+       "&lt;body bgcolor=FFFFFF&gt;");
+    out.println("&lt;h2&gt;Button Clicked&lt;/h2&gt;");
+    String DATA = request.getParameter("DATA");
+    if(DATA != null){
+      out.println(DATA);
+    } else {
+      out.println("No text entered.");
     }
-});</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>import org.apache.commona.io.FileUtils;
-String fileContent=FileUtils.readFileToString(file);</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$ mvn archetype:generate 
-        -DgroupId=com.mycompany.app
-        -DartifactId=my-app 
-        -DarchetypeArtifactId=maven-archetype-quickstart 
-        -DinteractiveMode=false</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Generate necessary config file for eclipse:
-$mvn eclipse:eclipse -Dwtpversion=2.0
-2. Imports it into Eclipse IDE
-File -&gt; Import… -&gt; General -&gt; Existing Projects into workspace</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$ mvn archetype:generate 
-        -DgroupId={project-packaging} 
-        -DartifactId={project-name} 
-        -DarchetypeArtifactId=maven-archetype-webapp 
-        -DinteractiveMode=false</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apache common io</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>java</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maven</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maven</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tomcat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>J2EE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>J2EE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSON</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>maven repo</t>
+    out.println("&lt;P&gt;Return to 
+        &lt;A HREF="../simpleHTML.html"&gt;Form&lt;/A&gt;");
+    out.close();
+  }
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpServletResponse Header Setting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>response.setContentType("text/x-json;charset=UTF-8");           
+response.setHeader("Cache-Control", "no-cache");
+response.getWriter().write(json.toString());
+OR
+json.write(response.getWriter());
+OR
+response.getWriter().print(jsonObject);
+response.getWriter().flush();</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -222,23 +280,28 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>response.setContentType("text/x-json;charset=UTF-8");           
-response.setHeader("Cache-Control", "no-cache");
-response.getWriter().write(json.toString());
-OR
-json.write(response.getWriter());
-OR
-response.getWriter().print(jsonObject);
-response.getWriter().flush();</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Regex</t>
-  </si>
-  <si>
-    <t>Pattern p= new Pattern("[abc]");
-Matcher m=p.getMatcher("subject");
-Boolean result= m.matches();</t>
+    <t>GSON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>map json to class object</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parse olass object to json(string)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Gson().toJson(obj);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Gson().fromJson(jsonString, ClassOfObject.class);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -624,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -640,40 +703,40 @@
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -684,40 +747,40 @@
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -726,31 +789,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="316.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -764,18 +827,54 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>36</v>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
